--- a/htdocs/App/Controllers/Traspasos/Salidas/Salida-6691DPG.xlsx
+++ b/htdocs/App/Controllers/Traspasos/Salidas/Salida-6691DPG.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
-    <t>Carlos Pozuelo</t>
+    <t>JUAN CARLOS POZUELO</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -52,7 +52,7 @@
     <t>Firma</t>
   </si>
   <si>
-    <t>31-10-2017</t>
+    <t>29-11-2017</t>
   </si>
 </sst>
 </file>
